--- a/Datenbankstruktur_Arbeitsaufteilung.xlsx
+++ b/Datenbankstruktur_Arbeitsaufteilung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\z0041r3p\Documents\SFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70734020-D960-4D53-A906-97ADB120BE7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B9E3F8-8BC2-42E0-A129-225029C05F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23025" yWindow="-2100" windowWidth="16650" windowHeight="14730" xr2:uid="{06AE0F02-CC25-4B52-B443-A287F6E131CB}"/>
+    <workbookView xWindow="-38520" yWindow="-5355" windowWidth="38640" windowHeight="21240" xr2:uid="{06AE0F02-CC25-4B52-B443-A287F6E131CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Flüge</t>
   </si>
@@ -77,9 +77,6 @@
     <t xml:space="preserve">Preis </t>
   </si>
   <si>
-    <t>Gebuchte Flüge</t>
-  </si>
-  <si>
     <t>FID</t>
   </si>
   <si>
@@ -95,7 +92,7 @@
     <t>UID</t>
   </si>
   <si>
-    <t>GID</t>
+    <t>Bez</t>
   </si>
   <si>
     <t>Admin</t>
@@ -143,18 +140,9 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Schon geflogen</t>
-  </si>
-  <si>
     <t>Storniert</t>
   </si>
   <si>
-    <t>Aktiv</t>
-  </si>
-  <si>
     <t>passwort123</t>
   </si>
   <si>
@@ -198,6 +186,27 @@
   </si>
   <si>
     <t>Statistik (keine DB --&gt; zusammengeführt)</t>
+  </si>
+  <si>
+    <t>Buchungen</t>
+  </si>
+  <si>
+    <t>BID</t>
+  </si>
+  <si>
+    <t>Stati</t>
+  </si>
+  <si>
+    <t>FK SID</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktiv </t>
+  </si>
+  <si>
+    <t>Geflogen</t>
   </si>
 </sst>
 </file>
@@ -335,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +382,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,9 +394,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,9 +401,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -434,6 +439,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -748,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEE3F2A-D0C0-46D3-AC73-D92A320004EE}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,8 +793,8 @@
     <col min="23" max="23" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
@@ -785,25 +808,29 @@
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="9"/>
       <c r="R2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="9"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="9"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>2</v>
@@ -813,7 +840,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>10</v>
@@ -828,329 +855,353 @@
         <v>13</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="T3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="14">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="16">
         <v>1</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="17">
         <v>1</v>
       </c>
       <c r="H4" s="24">
         <v>0.375</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="17">
         <v>8.5</v>
       </c>
       <c r="J4" s="22">
         <v>820</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="16">
         <v>1</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="17">
         <v>1</v>
       </c>
-      <c r="N4" s="15">
-        <v>2</v>
-      </c>
-      <c r="O4" s="16">
+      <c r="N4" s="17">
+        <v>2</v>
+      </c>
+      <c r="O4" s="18">
         <v>44085</v>
       </c>
-      <c r="P4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="14">
+      <c r="P4" s="36">
         <v>1</v>
       </c>
-      <c r="S4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>21</v>
+      <c r="R4" s="16">
+        <v>1</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="W4" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14">
-        <v>2</v>
-      </c>
-      <c r="C5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="14">
-        <v>2</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="17">
         <v>2</v>
       </c>
       <c r="H5" s="24">
         <v>0.41666666666666702</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="17">
         <v>2</v>
       </c>
       <c r="J5" s="22">
         <v>255</v>
       </c>
-      <c r="L5" s="14">
-        <v>2</v>
-      </c>
-      <c r="M5" s="15">
-        <v>2</v>
-      </c>
-      <c r="N5" s="15">
-        <v>2</v>
-      </c>
-      <c r="O5" s="16">
+      <c r="L5" s="16">
+        <v>2</v>
+      </c>
+      <c r="M5" s="17">
+        <v>2</v>
+      </c>
+      <c r="N5" s="17">
+        <v>2</v>
+      </c>
+      <c r="O5" s="18">
         <v>43863</v>
       </c>
-      <c r="P5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="18">
-        <v>2</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="19" t="s">
+      <c r="P5" s="36">
+        <v>2</v>
+      </c>
+      <c r="R5" s="19">
+        <v>2</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="W5" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="16">
         <v>3</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="17">
         <v>3</v>
       </c>
       <c r="H6" s="24">
         <v>0.45833333333333298</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="17">
         <v>1</v>
       </c>
       <c r="J6" s="22">
         <v>205</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="16">
         <v>3</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="17">
         <v>4</v>
       </c>
-      <c r="N6" s="15">
-        <v>2</v>
-      </c>
-      <c r="O6" s="16">
+      <c r="N6" s="17">
+        <v>2</v>
+      </c>
+      <c r="O6" s="18">
         <v>43985</v>
       </c>
-      <c r="P6" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+      <c r="P6" s="36">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="16">
         <v>4</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="17">
         <v>4</v>
       </c>
       <c r="H7" s="24">
         <v>0.5</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="17">
         <v>1</v>
       </c>
       <c r="J7" s="22">
         <v>199</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="16">
         <v>4</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="17">
         <v>3</v>
       </c>
-      <c r="N7" s="15">
-        <v>2</v>
-      </c>
-      <c r="O7" s="16">
+      <c r="N7" s="17">
+        <v>2</v>
+      </c>
+      <c r="O7" s="18">
         <v>44047</v>
       </c>
-      <c r="P7" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18">
+      <c r="P7" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
         <v>5</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="16">
         <v>5</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="17">
         <v>5</v>
       </c>
       <c r="H8" s="24">
         <v>0.54166666666666696</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="17">
         <v>2.5</v>
       </c>
       <c r="J8" s="22">
         <v>370</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="19">
         <v>5</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="20">
         <v>1</v>
       </c>
-      <c r="N8" s="19">
-        <v>2</v>
-      </c>
-      <c r="O8" s="20">
+      <c r="N8" s="20">
+        <v>2</v>
+      </c>
+      <c r="O8" s="21">
         <v>43833</v>
       </c>
-      <c r="P8" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="18">
+      <c r="P8" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="19">
         <v>6</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="20">
         <v>1</v>
       </c>
       <c r="H9" s="25">
         <v>0.75</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="20">
         <v>8.5</v>
       </c>
       <c r="J9" s="23">
         <v>930</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:26" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="4" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="33">
         <v>43958</v>
@@ -1180,10 +1231,10 @@
     </row>
     <row r="17" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1191,7 +1242,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1200,10 +1251,10 @@
     </row>
     <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1218,10 +1269,10 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1236,10 +1287,10 @@
     </row>
     <row r="20" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
